--- a/صيدليات دكتور مصطفي طلعت_2026-01-14_23-07.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-14_23-07.xlsx
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>FLUREST N 20 TABS</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
     <t>FUTAPAN 40 MG VIAL I.V.</t>
@@ -2134,13 +2137,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>59.5</v>
+        <v>44</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -2160,13 +2163,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>66</v>
+        <v>59.5</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -2186,17 +2189,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2212,17 +2215,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2238,17 +2241,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2264,17 +2267,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2290,17 +2293,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2308,7 +2311,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2316,17 +2319,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2342,13 +2345,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2374,11 +2377,11 @@
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2394,17 +2397,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2420,17 +2423,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2446,13 +2449,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2464,7 +2467,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2472,17 +2475,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2498,17 +2501,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2524,17 +2527,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2542,7 +2545,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2550,17 +2553,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2576,13 +2579,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2602,17 +2605,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2628,17 +2631,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2660,7 +2663,7 @@
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
@@ -2680,17 +2683,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2698,7 +2701,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2706,17 +2709,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2732,13 +2735,13 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
@@ -2758,17 +2761,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2776,7 +2779,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2784,17 +2787,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>260</v>
+        <v>50</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2802,7 +2805,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2810,17 +2813,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>41</v>
+        <v>260</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2836,17 +2839,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2862,17 +2865,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2888,13 +2891,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>21.559999999999999</v>
+        <v>75</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
@@ -2914,13 +2917,13 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>29</v>
+        <v>21.559999999999999</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
@@ -2940,13 +2943,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
@@ -2966,17 +2969,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2992,17 +2995,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3010,7 +3013,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -3018,17 +3021,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -3036,7 +3039,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -3044,17 +3047,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -3070,17 +3073,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3096,17 +3099,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>74</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3122,17 +3125,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>9</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3148,17 +3151,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3174,17 +3177,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3200,17 +3203,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3226,13 +3229,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
@@ -3252,17 +3255,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>58</v>
+        <v>230</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3278,13 +3281,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>75.200000000000003</v>
+        <v>58</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
@@ -3304,17 +3307,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>144</v>
+        <v>75.200000000000003</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>85</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3330,17 +3333,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3356,17 +3359,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3374,7 +3377,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3382,17 +3385,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>68.310000000000002</v>
+        <v>84</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3408,13 +3411,13 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>35</v>
+        <v>68.310000000000002</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
@@ -3440,7 +3443,7 @@
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
@@ -3460,13 +3463,13 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
@@ -3486,13 +3489,13 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
@@ -3512,17 +3515,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3538,17 +3541,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3556,7 +3559,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3564,17 +3567,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3590,17 +3593,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3616,13 +3619,13 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
@@ -3642,17 +3645,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3668,17 +3671,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>531</v>
+        <v>41</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3694,17 +3697,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>-96</v>
+        <v>531</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3720,17 +3723,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>11</v>
+        <v>-96</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3746,17 +3749,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3772,13 +3775,13 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
@@ -3798,13 +3801,13 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
@@ -3824,13 +3827,13 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="M108" s="9"/>
       <c t="s" r="N108" s="7">
@@ -3850,13 +3853,13 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>25.739999999999998</v>
+        <v>120</v>
       </c>
       <c r="M109" s="9"/>
       <c t="s" r="N109" s="7">
@@ -3876,17 +3879,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>14.67</v>
+        <v>25.739999999999998</v>
       </c>
       <c r="M110" s="9"/>
       <c t="s" r="N110" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -3894,7 +3897,7 @@
         <v>108</v>
       </c>
       <c t="s" r="B111" s="7">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -3902,17 +3905,17 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>34</v>
+        <v>14.67</v>
       </c>
       <c r="M111" s="9"/>
       <c t="s" r="N111" s="7">
-        <v>48</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -3928,17 +3931,17 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>16.5</v>
+        <v>34</v>
       </c>
       <c r="M112" s="9"/>
       <c t="s" r="N112" s="7">
-        <v>131</v>
+        <v>48</v>
       </c>
     </row>
     <row r="113" ht="25.5" customHeight="1">
@@ -3946,7 +3949,7 @@
         <v>110</v>
       </c>
       <c t="s" r="B113" s="7">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -3954,17 +3957,17 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>9</v>
+        <v>149</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>86</v>
+        <v>16.5</v>
       </c>
       <c r="M113" s="9"/>
       <c t="s" r="N113" s="7">
-        <v>9</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" ht="24.75" customHeight="1">
@@ -3980,17 +3983,17 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="M114" s="9"/>
       <c t="s" r="N114" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" ht="25.5" customHeight="1">
@@ -4006,17 +4009,17 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="M115" s="9"/>
       <c t="s" r="N115" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" ht="24.75" customHeight="1">
@@ -4032,17 +4035,17 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="M116" s="9"/>
       <c t="s" r="N116" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -4058,17 +4061,17 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="M117" s="9"/>
       <c t="s" r="N117" s="7">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" ht="25.5" customHeight="1">
@@ -4090,11 +4093,11 @@
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="M118" s="9"/>
       <c t="s" r="N118" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" ht="24.75" customHeight="1">
@@ -4116,7 +4119,7 @@
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="M119" s="9"/>
       <c t="s" r="N119" s="7">
@@ -4142,7 +4145,7 @@
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>375</v>
+        <v>15</v>
       </c>
       <c r="M120" s="9"/>
       <c t="s" r="N120" s="7">
@@ -4162,13 +4165,13 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>20</v>
+        <v>375</v>
       </c>
       <c r="M121" s="9"/>
       <c t="s" r="N121" s="7">
@@ -4188,17 +4191,17 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M122" s="9"/>
       <c t="s" r="N122" s="7">
-        <v>98</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" ht="25.5" customHeight="1">
@@ -4206,7 +4209,7 @@
         <v>120</v>
       </c>
       <c t="s" r="B123" s="7">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -4214,17 +4217,17 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>87.200000000000003</v>
+        <v>24</v>
       </c>
       <c r="M123" s="9"/>
       <c t="s" r="N123" s="7">
-        <v>162</v>
+        <v>99</v>
       </c>
     </row>
     <row r="124" ht="24.75" customHeight="1">
@@ -4232,7 +4235,7 @@
         <v>121</v>
       </c>
       <c t="s" r="B124" s="7">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -4240,17 +4243,17 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c t="s" r="H124" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="9">
-        <v>-2</v>
+        <v>87.200000000000003</v>
       </c>
       <c r="M124" s="9"/>
       <c t="s" r="N124" s="7">
-        <v>9</v>
+        <v>163</v>
       </c>
     </row>
     <row r="125" ht="25.5" customHeight="1">
@@ -4258,7 +4261,7 @@
         <v>122</v>
       </c>
       <c t="s" r="B125" s="7">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -4266,13 +4269,13 @@
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c t="s" r="H125" s="8">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="9">
-        <v>50</v>
+        <v>-2</v>
       </c>
       <c r="M125" s="9"/>
       <c t="s" r="N125" s="7">
@@ -4298,7 +4301,7 @@
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M126" s="9"/>
       <c t="s" r="N126" s="7">
@@ -4318,13 +4321,13 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c t="s" r="H127" s="8">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="9">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M127" s="9"/>
       <c t="s" r="N127" s="7">
@@ -4344,13 +4347,13 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c t="s" r="H128" s="8">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="9">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="M128" s="9"/>
       <c t="s" r="N128" s="7">
@@ -4370,13 +4373,13 @@
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c t="s" r="H129" s="8">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
       <c r="L129" s="9">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="M129" s="9"/>
       <c t="s" r="N129" s="7">
@@ -4396,17 +4399,17 @@
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c t="s" r="H130" s="8">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
       <c r="L130" s="9">
-        <v>45.119999999999997</v>
+        <v>20</v>
       </c>
       <c r="M130" s="9"/>
       <c t="s" r="N130" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" ht="24.75" customHeight="1">
@@ -4422,17 +4425,17 @@
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c t="s" r="H131" s="8">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
       <c r="L131" s="9">
-        <v>80</v>
+        <v>45.119999999999997</v>
       </c>
       <c r="M131" s="9"/>
       <c t="s" r="N131" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -4448,13 +4451,13 @@
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c t="s" r="H132" s="8">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
       <c r="L132" s="9">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="M132" s="9"/>
       <c t="s" r="N132" s="7">
@@ -4462,37 +4465,63 @@
       </c>
     </row>
     <row r="133" ht="25.5" customHeight="1">
-      <c r="K133" s="10">
-        <v>7586.8800000000001</v>
-      </c>
-      <c r="L133" s="10"/>
-      <c r="M133" s="10"/>
-      <c r="N133" s="10"/>
-    </row>
-    <row r="134" ht="17.25" customHeight="1">
-      <c t="s" r="A134" s="11">
+      <c r="A133" s="6">
+        <v>130</v>
+      </c>
+      <c t="s" r="B133" s="7">
         <v>173</v>
       </c>
-      <c r="B134" s="11"/>
-      <c r="C134" s="11"/>
-      <c r="D134" s="11"/>
-      <c r="E134" s="11"/>
-      <c t="s" r="F134" s="12">
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c t="s" r="H133" s="8">
+        <v>9</v>
+      </c>
+      <c r="I133" s="8"/>
+      <c r="J133" s="8"/>
+      <c r="K133" s="8"/>
+      <c r="L133" s="9">
+        <v>20</v>
+      </c>
+      <c r="M133" s="9"/>
+      <c t="s" r="N133" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="K134" s="10">
+        <v>7630.8800000000001</v>
+      </c>
+      <c r="L134" s="10"/>
+      <c r="M134" s="10"/>
+      <c r="N134" s="10"/>
+    </row>
+    <row r="135" ht="16.5" customHeight="1">
+      <c t="s" r="A135" s="11">
         <v>174</v>
       </c>
-      <c r="G134" s="12"/>
-      <c r="H134" s="13"/>
-      <c t="s" r="I134" s="14">
+      <c r="B135" s="11"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c t="s" r="F135" s="12">
         <v>175</v>
       </c>
-      <c r="J134" s="14"/>
-      <c r="K134" s="14"/>
-      <c r="L134" s="14"/>
-      <c r="M134" s="14"/>
-      <c r="N134" s="14"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="13"/>
+      <c t="s" r="I135" s="14">
+        <v>176</v>
+      </c>
+      <c r="J135" s="14"/>
+      <c r="K135" s="14"/>
+      <c r="L135" s="14"/>
+      <c r="M135" s="14"/>
+      <c r="N135" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="398">
+  <mergeCells count="401">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4887,10 +4916,13 @@
     <mergeCell ref="B132:G132"/>
     <mergeCell ref="H132:K132"/>
     <mergeCell ref="L132:M132"/>
-    <mergeCell ref="K133:N133"/>
-    <mergeCell ref="A134:E134"/>
-    <mergeCell ref="F134:G134"/>
-    <mergeCell ref="I134:N134"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="K134:N134"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="I135:N135"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
